--- a/AMRDB(GOT)/Manual poll/data_for_table.xlsx
+++ b/AMRDB(GOT)/Manual poll/data_for_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="76">
   <si>
     <t>description</t>
   </si>
@@ -43,45 +43,6 @@
     <t>float_signed_value</t>
   </si>
   <si>
-    <t>Address 0</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>Address 4</t>
-  </si>
-  <si>
-    <t>Address 12</t>
-  </si>
-  <si>
-    <t>Address 16</t>
-  </si>
-  <si>
-    <t>Address 18</t>
-  </si>
-  <si>
-    <t>Address 6</t>
-  </si>
-  <si>
-    <t>Address 20</t>
-  </si>
-  <si>
-    <t>Address 22</t>
-  </si>
-  <si>
-    <t>Address 24</t>
-  </si>
-  <si>
-    <t>Address 26</t>
-  </si>
-  <si>
-    <t>Address 28</t>
-  </si>
-  <si>
-    <t>Address 30</t>
-  </si>
-  <si>
     <t>Specific Gravity</t>
   </si>
   <si>
@@ -127,16 +88,160 @@
     <t>Address 60</t>
   </si>
   <si>
+    <t>Address 62</t>
+  </si>
+  <si>
+    <t>Address 64</t>
+  </si>
+  <si>
+    <t>Address 66</t>
+  </si>
+  <si>
+    <t>Address 68</t>
+  </si>
+  <si>
+    <t>Address 70</t>
+  </si>
+  <si>
+    <t>Address 72</t>
+  </si>
+  <si>
+    <t>Address 74</t>
+  </si>
+  <si>
+    <t>Address 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carbon dioxide</t>
+  </si>
+  <si>
+    <t>Address 80</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Address 84</t>
+  </si>
+  <si>
+    <t>Address 86</t>
+  </si>
+  <si>
+    <t>Address 88</t>
+  </si>
+  <si>
+    <t>Address 90</t>
+  </si>
+  <si>
+    <t>Address 92</t>
+  </si>
+  <si>
+    <t>Address 94</t>
+  </si>
+  <si>
+    <t>Address 96</t>
+  </si>
+  <si>
+    <t>Address 98</t>
+  </si>
+  <si>
+    <t>Address 100</t>
+  </si>
+  <si>
+    <t>Address 102</t>
+  </si>
+  <si>
+    <t>Address 104</t>
+  </si>
+  <si>
+    <t>Address 106</t>
+  </si>
+  <si>
+    <t>Address 108</t>
+  </si>
+  <si>
+    <t>Address 110</t>
+  </si>
+  <si>
+    <t>Address 112</t>
+  </si>
+  <si>
+    <t>Address 114</t>
+  </si>
+  <si>
+    <t>Address 116</t>
+  </si>
+  <si>
+    <t>Address 118</t>
+  </si>
+  <si>
+    <t>Address 120</t>
+  </si>
+  <si>
+    <t>Address 122</t>
+  </si>
+  <si>
+    <t>Address 124</t>
+  </si>
+  <si>
+    <t>Address 126</t>
+  </si>
+  <si>
+    <t>Address 128</t>
+  </si>
+  <si>
+    <t>Address 130</t>
+  </si>
+  <si>
+    <t>Address 132</t>
+  </si>
+  <si>
+    <t>Address 134</t>
+  </si>
+  <si>
+    <t>Address 136</t>
+  </si>
+  <si>
+    <t>Address 138</t>
+  </si>
+  <si>
+    <t>Address 140</t>
+  </si>
+  <si>
+    <t>Address 142</t>
+  </si>
+  <si>
+    <t>Address 144</t>
+  </si>
+  <si>
+    <t>Address 146</t>
+  </si>
+  <si>
+    <t>Address 148</t>
+  </si>
+  <si>
+    <t>Address 150</t>
+  </si>
+  <si>
+    <t>Address 152</t>
+  </si>
+  <si>
     <t>0x0</t>
   </si>
   <si>
     <t>0xd107</t>
   </si>
   <si>
-    <t>00000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>00000000000000001101000100000111</t>
+    <t>0000000000000000</t>
+  </si>
+  <si>
+    <t>1101000100000111</t>
+  </si>
+  <si>
+    <t>16-bit signed: 0, float: 0</t>
+  </si>
+  <si>
+    <t>16-bit signed: -12025, float: 53511</t>
   </si>
 </sst>
 </file>
@@ -494,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,25 +639,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -563,25 +668,25 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -592,25 +697,25 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -621,25 +726,25 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -650,25 +755,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -679,25 +784,25 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -708,25 +813,25 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -737,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -766,25 +871,25 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -795,25 +900,25 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -824,25 +929,25 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -853,25 +958,25 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -882,25 +987,25 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -911,25 +1016,25 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -940,25 +1045,25 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -969,25 +1074,25 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -998,25 +1103,25 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1027,25 +1132,25 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1056,25 +1161,25 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1085,25 +1190,25 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1114,25 +1219,25 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1143,25 +1248,25 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1172,25 +1277,25 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1201,25 +1306,25 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1230,25 +1335,25 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1259,25 +1364,25 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1288,25 +1393,25 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1317,28 +1422,985 @@
         <v>36</v>
       </c>
       <c r="B29">
+        <v>86</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>94</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>96</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>104</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>106</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>110</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>114</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>116</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>118</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>120</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>122</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>124</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>126</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>128</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>132</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="C29">
+      <c r="B53">
+        <v>134</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>136</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>138</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>140</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>142</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58">
+        <v>144</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59">
+        <v>146</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60">
+        <v>148</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61">
+        <v>150</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62">
+        <v>152</v>
+      </c>
+      <c r="C62">
         <v>53511</v>
       </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29">
-        <v>7.498488212448529E-41</v>
-      </c>
-      <c r="G29">
-        <v>53511</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>53511</v>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62">
+        <v>-12025</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>-12025</v>
       </c>
     </row>
   </sheetData>
